--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,475 +468,419 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>s101</t>
+          <t>AL364</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>s101</t>
+          <t>AL364</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>unhrc</t>
+          <t>Arab League</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>samu</t>
+          <t>Sunny Gogoi</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>veg</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>s102</t>
+          <t>AL919</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>s102</t>
+          <t>AL919</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>nato</t>
+          <t>Arab League</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>oskpa</t>
+          <t>Angad Chitale</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>nonveg</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>s103</t>
+          <t>AL563</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>s103</t>
+          <t>AL563</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>niti</t>
+          <t>Arab League</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>malsk</t>
+          <t xml:space="preserve">Gokul Sundararaghavan </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>veg</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>s104</t>
+          <t>AL602</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>s104</t>
+          <t>AL602</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>plenary</t>
+          <t>Arab League</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>jsb</t>
+          <t>M Hariroopan</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>nonveg</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
+          <t>Non Veg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>s105</t>
+          <t>AL728</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>s105</t>
+          <t>AL728</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>unhrc</t>
+          <t>Arab League</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>jsdccc</t>
+          <t>Venkateswar L</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>veg</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>s106</t>
+          <t>AL337</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>s106</t>
+          <t>AL337</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>nato</t>
+          <t>Arab League</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>sapokpoa</t>
+          <t xml:space="preserve">Ashwamedh </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>nonveg</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>s107</t>
+          <t>AL528</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>s107</t>
+          <t>AL528</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>niti</t>
+          <t>Arab League</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>lkams</t>
+          <t>Abhinav S</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>veg</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>s108</t>
+          <t>AL824</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>s108</t>
+          <t>AL824</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>plenary</t>
+          <t>Arab League</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>klsd</t>
+          <t>Sakshaat Mathur</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>nonveg</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
+          <t>Non veg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>s109</t>
+          <t>AL923</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>s109</t>
+          <t>AL923</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>unhrc</t>
+          <t>Arab League</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>sbakj</t>
+          <t>Rohit Sundar V</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>veg</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>s110</t>
+          <t>AL540</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>s110</t>
+          <t>AL540</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>nato</t>
+          <t>Arab League</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>kjasld</t>
+          <t>Vishal Suresh</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>nonveg</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>s111</t>
+          <t>AL416</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>s111</t>
+          <t>AL416</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>niti</t>
+          <t>Arab League</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>kajs</t>
+          <t xml:space="preserve">Nethi Kushala Kumar </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>veg</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
+          <t>Non Veg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>s112</t>
+          <t>AL397</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>s112</t>
+          <t>AL397</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>plenary</t>
+          <t>Arab League</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>kmlakma</t>
+          <t>Adiseshan Ramanan</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>nonveg</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>s113</t>
+          <t>AL431</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>s113</t>
+          <t>AL431</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>unhrc</t>
+          <t>Arab League</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>lkkl</t>
+          <t>KOUSHIK VIJAY</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>veg</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>s114</t>
+          <t>AL865</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>s114</t>
+          <t>AL865</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>nato</t>
+          <t>Arab League</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>jsdccc</t>
+          <t xml:space="preserve"> SABESH KALIESWARAN</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>nonveg</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>s115</t>
+          <t>AL702</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>s115</t>
+          <t>AL702</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>niti</t>
+          <t>Arab League</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>jsdccc</t>
+          <t>S.Vijayasriram</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>veg</t>
+          <t>Non-Veg</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -944,59 +888,55 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>s116</t>
+          <t>AL891</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>s116</t>
+          <t>AL891</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>plenary</t>
+          <t>Arab League</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>jsdccc</t>
+          <t>Sarang Deepak Rajgopaul</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>nonveg</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>s117</t>
+          <t>AL184</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>s117</t>
+          <t>AL184</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>unhrc</t>
+          <t>Arab League</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>jsdccc</t>
+          <t xml:space="preserve">Shravan Sumanthanan </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>veg</t>
+          <t>Veg</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1004,30 +944,6711 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>s118</t>
+          <t>AL542</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>s118</t>
+          <t>AL542</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>nato</t>
+          <t>Arab League</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>jsdccc</t>
+          <t xml:space="preserve">Sree Pramod Ganapa </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>nonveg</t>
+          <t>Non-Veg</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>AL263</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>AL263</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Arab League</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Vishal Thangakumar</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>AL452</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AL452</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Arab League</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Thavanesh Kumaran RK</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>AL886</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>AL886</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Arab League</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Siddharth BH</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>AL660</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>AL660</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Arab League</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Dhruv Kamal K</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>AL598</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>AL598</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Arab League</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Akshaya R</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>AL377</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>AL377</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Arab League</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Pranav Ishwar S</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>AL882</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>AL882</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Arab League</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jaddu Rupa Gayatri </t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Non veg </t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>AL793</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>AL793</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Arab League</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rahul Avdhani </t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Non veg </t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>AL236</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>AL236</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Arab League</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ASMI K</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>VEG</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>AL676</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>AL676</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Arab League</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ANAGHA MENON</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Non Veg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>AL622</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>AL622</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Arab League</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M.Shubhashri </t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>AL953</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AL953</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Arab League</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P. Safeeka Tabassum </t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>AL281</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>AL281</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Arab League</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Narender Senthil</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Non Veg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>AL684</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>AL684</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Arab League</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Gowtham Srinivas</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>AL258</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>AL258</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Arab League</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Pooja Shah</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>AL722</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>AL722</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Arab League</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Rohan Garg</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>AL648</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>AL648</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Arab League</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Pratham Roy</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Non veg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>AL176</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>AL176</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Arab League</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jayasuryaa Chandrasekar </t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>AL952</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>AL952</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Arab League</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nikhilesh Gotety </t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>AL290</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>AL290</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Arab League</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Arsh Misra</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>AL430</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>AL430</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Arab League</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Atharva Purohit</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>AL990</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>AL990</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Arab League</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>A .Shreyhas</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>AL112</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>AL112</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Arab League</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Siddharth Ramakrishnan</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>NO890</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>NO890</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NATO</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>KISHORE.S</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>NO791</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>NO791</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NATO</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Eedpuganti Yagna Sai Harshith</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Non-veg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>NO272</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>NO272</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NATO</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Syeda Umaiza Unsa</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Non veg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>NO267</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>NO267</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NATO</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Deepthi P</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>NO327</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>NO327</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>NATO</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shujah Falehah Mariam </t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>NO351</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>NO351</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>NATO</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Peehu Saxena</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>NO417</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>NO417</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NATO</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Aditya Mohan</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>NO180</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>NO180</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>NATO</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hrishikesh </t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>NO643</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>NO643</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>NATO</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Ansh Semwal</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>NO974</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>NO974</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>NATO</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Manan Parekh</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>NO352</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>NO352</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>NATO</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Harsha Vardhana Anand V</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>NO461</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>NO461</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>NATO</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arushi Tewari </t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>NO530</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>NO530</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>NATO</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>somesh senthil</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Non veg</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>NO755</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>NO755</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NATO</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Prateek Kumar</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>NO659</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>NO659</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>NATO</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Ramsreyas J</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>VEG</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>NO473</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>NO473</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>NATO</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anton Rejoe P </t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>NO274</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>NO274</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>NATO</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Jai Vignesh S D</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>NO357</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>NO357</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>NATO</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Vrundan Patel</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>NO547</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>NO547</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>NATO</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raghav Karthik
+</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>NO238</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>NO238</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>NATO</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Kumaraswamy.G</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>NO992</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>NO992</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>NATO</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Fardan Zaman</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Non-Veg (Halal)</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>NO486</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>NO486</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>NATO</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Shyam Nair</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>NO795</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>NO795</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>NATO</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>JACOB</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>non-veg</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>NO852</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>NO852</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>NATO</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>M.Shrinath</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>NO576</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>NO576</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>NATO</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Nishaanth MN</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>NO848</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>NO848</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>NATO</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Jahnavi Dhir</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Non veg</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>NO519</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>NO519</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>NATO</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avyukt Harsh Agrawal
+</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>NO947</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>NO947</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>NATO</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adhiraj Singh Cheema </t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>PL481</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>PL481</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Pleanry</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Mohammed Aashik F</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>non-veg</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>PL186</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>PL186</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Pleanry</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>K.Manogna</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>non veg</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>PL784</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>PL784</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Pleanry</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mrithula </t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>PL749</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>PL749</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Pleanry</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Adhesh. M</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>PL520</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>PL520</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Pleanry</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Keertan Vasani</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>PL561</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>PL561</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Pleanry</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>P Anish</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>PL332</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>PL332</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Pleanry</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Neya Balaji</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>PL799</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>PL799</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Pleanry</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Guru Charan Sivakumar</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>PL553</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>PL553</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Pleanry</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>T S Abhishek</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>PL986</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>PL986</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Pleanry</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Sushane Makkar</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>PL623</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>PL623</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Pleanry</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>J P SAI SRAVANTHI</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>PL109</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>PL109</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Pleanry</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>bhargavi</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>PL633</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>PL633</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Pleanry</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Priyansh Desai</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>PL849</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>PL849</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Pleanry</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aaditya Sreekumar </t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>PL356</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>PL356</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Pleanry</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Nimitt Sharma</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>PL889</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>PL889</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Pleanry</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ved Gopan </t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>PL163</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>PL163</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Pleanry</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Arman Mahapatra</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Non Veg</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>PL854</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>PL854</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Pleanry</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Madhumitha R </t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>PL103</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>PL103</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Pleanry</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Deepti Mahesh Aswani</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>PL624</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>PL624</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Pleanry</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Shruti Sivakumar</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>PL437</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>PL437</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Pleanry</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>DIVAKAR R</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>non-veg</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>PL342</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>PL342</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Pleanry</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Navanith Sampath Kumar</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>PL726</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>PL726</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Pleanry</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Nithin.K</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>PL775</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>PL775</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Pleanry</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Sivakaarthikeyan V</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>non-veg</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>PL394</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>PL394</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Pleanry</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>sanya mathur</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>PL318</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>PL318</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Pleanry</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Shreya Sivakumar</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>PL669</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>PL669</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Pleanry</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>SrilekhaR</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>veg</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>PL981</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>PL981</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Pleanry</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anirudh S </t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">veg </t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>PL906</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>PL906</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Pleanry</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Vinaayak Kanagaraj</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>PL751</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>PL751</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Pleanry</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Someshwar K M</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>ES928</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ES928</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Savar Mago </t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>ES913</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ES913</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Mohammed Raihaan Arif</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>ES836</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ES836</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Yogitha Sundararajan</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>ES442</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ES442</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Maneesh Ari</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>ES304</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>ES304</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>P Aparna</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Non veg</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>ES555</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>ES555</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jetty Venkata Hrishi Samay </t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>ES363</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ES363</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Koshal Ram</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>ES147</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>ES147</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nishiga Mohan </t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>ES941</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>ES941</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Srivaass Ganesan
+</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>ES277</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>ES277</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Janella J</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>ES897</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>ES897</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Mohamed Waseem A</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>ES776</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>ES776</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Varun Ganesh</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>ES696</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>ES696</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harshvant Raj M </t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>ES168</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>ES168</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>A Jeevithaa Shree</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>ES883</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>ES883</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>ES469</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>ES469</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Sneha Banerjee</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>ES395</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>ES395</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Kunal Kundnani</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>ES874</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>ES874</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Krtin Narayanan</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>ES421</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>ES421</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Aryaa Karthik</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>ES822</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>ES822</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Shivnarayanan Kannan</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>ES257</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>ES257</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SHIVANGI JAIN
+</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>ES550</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>ES550</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Soorya Narayanan</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>ES713</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>ES713</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Suresh</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>ES306</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>ES306</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">POOBITHASRI V S </t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>ES731</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>ES731</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Sahana M</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>ES106</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>ES106</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Anandu Vinod</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>ES631</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>ES631</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Yashashvi Agarwal</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>ES521</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>ES521</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Shrikanth Pillai</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Non veg</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>ES746</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>ES746</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>SHAURYA VEER SHARMA</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>ES216</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>ES216</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Karthik Srinivas</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>ES893</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>ES893</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Harshithaa D</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>ES969</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>ES969</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Nicholas Justin Joseph</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>ES455</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>ES455</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Sushil koushik</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>ES229</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>ES229</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Priyadharshnee R </t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Non Veg</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>ES242</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>ES242</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Hariharan Ganesh</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>ES358</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>ES358</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Saranathan Iyengar S</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>ES418</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>ES418</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Kaushal Loya</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>ES607</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>ES607</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Paul Jey Sanjith.J</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>ES154</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>ES154</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nandini S </t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>ES451</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>ES451</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Elma T.V.</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>ES917</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>ES917</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Sriraj S</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>ES516</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>ES516</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Karthik</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>ES609</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>ES609</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Abirame.P</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>ES638</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>ES638</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Sankara Narayanan M</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>ES939</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>ES939</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>meeraja</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Non veg</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>ES770</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>ES770</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Krithiga Hariharan</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>ES853</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>ES853</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Annapurna Jolly</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>ES596</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>ES596</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Dhamini Manoj</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>ES885</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>ES885</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Madhavkrishnan Muralidharan</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Non Veg</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>ES479</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>ES479</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Dwarakesh B</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>ES690</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>ES690</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rishi Beria </t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>ES801</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>ES801</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Roshini.A</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>ES291</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>ES291</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Varadhavallabha.T.D</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>ES471</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>ES471</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Vishnu Charan M</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>ES484</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>ES484</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harsh Singh </t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>ES375</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>ES375</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anushree Tamilkumar </t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Non Veg</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>ES104</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>ES104</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Mehul Dinesh</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>ES937</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>ES937</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>ECOSOC</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Saitarun</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>NT976</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>NT976</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Sanket Maniyar</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>NT698</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>NT698</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pavietran Sarojkumar </t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Non Veg</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>NT809</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>NT809</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Aditya Agarwal</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>NT207</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>NT207</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Sanjay A R</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>NT972</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>NT972</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Hariharasudhan S</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>NT191</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>NT191</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Aravind S</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>NT435</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>NT435</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B Pradyumna </t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>NT299</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>NT299</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>G Aishwarya</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>NT907</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>NT907</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chitranjan Mishra </t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>NT441</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>NT441</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S Sujith Kumar </t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>NT174</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>NT174</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Aditya PV</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>NT694</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>NT694</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>R.nandhini</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>NT730</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>NT730</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>V sashank</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
+          <t>NT595</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>NT595</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>S Saikumar</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="inlineStr">
+        <is>
+          <t>NT706</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>NT706</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>G.Pranav Arrya</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="inlineStr">
+        <is>
+          <t>NT765</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>NT765</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Pranav Kalyan</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>non veg</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="inlineStr">
+        <is>
+          <t>NT308</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>NT308</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Srividhya Sekhar </t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="inlineStr">
+        <is>
+          <t>NT463</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>NT463</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Pavan P</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="inlineStr">
+        <is>
+          <t>NT950</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>NT950</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Akash A</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr">
+        <is>
+          <t>NT151</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>NT151</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Videep Bothra</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="inlineStr">
+        <is>
+          <t>NT718</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>NT718</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nevin Jacob Kurian </t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Non veg</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="inlineStr">
+        <is>
+          <t>NT506</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>NT506</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Ronit RB</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>NT860</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>NT860</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Aditya R</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>NT150</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>NT150</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Keerthi Kumar </t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>NT788</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>NT788</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Sonia Ramesh Kumar</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>non veg</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>NT875</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>NT875</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Paarthu Reddy Gavni</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>non veg</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>NT716</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>NT716</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dharun Aditya Senthilkumar </t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>NT330</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>NT330</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>S.Vishrranth</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>NT735</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>NT735</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nammi krishika swathya </t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>veg</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>NT316</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>NT316</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Aditya DP</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>non-veg</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>NT754</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>NT754</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Nikitha</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>non-veg</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>NT656</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>NT656</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>S A Pranav</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>non-veg</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
+          <t>NT856</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>NT856</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Abhilash Vaidyanathan</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>NT407</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>NT407</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sudharshna K </t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>NT552</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>NT552</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Tarun</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>NT835</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>NT835</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>K.ANIRUTHAN</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>NT707</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>NT707</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Priyansh Narang</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>NT663</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>NT663</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tanweer Mohamed Ibrahim </t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="inlineStr">
+        <is>
+          <t>NT230</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>NT230</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ayesha Batul </t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>NT779</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>NT779</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Amruta Ginil</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="inlineStr">
+        <is>
+          <t>NT305</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>NT305</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Anushka Mishra</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="inlineStr">
+        <is>
+          <t>NT965</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>NT965</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Vrinda Bajaj</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>NT942</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>NT942</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mukesh Sharma </t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="inlineStr">
+        <is>
+          <t>NT601</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>NT601</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agatsya Mishra </t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="inlineStr">
+        <is>
+          <t>NT756</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>NT756</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>NITI Aayog</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>S.J.Ritesh</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="inlineStr">
+        <is>
+          <t>HR881</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>HR881</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Adit srikumar Nair</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>non veg</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="inlineStr">
+        <is>
+          <t>HR945</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>HR945</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Nancy Christina KV</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Non Veg</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>HR515</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>HR515</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mahima Sekar </t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>HR239</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>HR239</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Benedict Sunil</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="inlineStr">
+        <is>
+          <t>HR562</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>HR562</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Nikkitha Bhavani S</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="inlineStr">
+        <is>
+          <t>HR543</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>HR543</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Judah Jos Jacinth</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="inlineStr">
+        <is>
+          <t>HR297</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>HR297</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Auston S F</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Non Veg</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="inlineStr">
+        <is>
+          <t>HR324</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>HR324</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vansh Kalantri </t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="inlineStr">
+        <is>
+          <t>HR586</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>HR586</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Kasvi Singh</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="inlineStr">
+        <is>
+          <t>HR603</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>HR603</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>PRISHA R B</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="inlineStr">
+        <is>
+          <t>HR315</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>HR315</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Aswath Siddharth R</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="inlineStr">
+        <is>
+          <t>HR194</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>HR194</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Krithik Rajamohan</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="inlineStr">
+        <is>
+          <t>HR208</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>HR208</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Shreya Venghatesh</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="inlineStr">
+        <is>
+          <t>HR964</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>HR964</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sundar Ganesh S S </t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="inlineStr">
+        <is>
+          <t>HR800</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>HR800</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>SUBRAJITH R</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="inlineStr">
+        <is>
+          <t>HR228</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>HR228</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Dharsan A</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="inlineStr">
+        <is>
+          <t>HR132</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>HR132</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Adithya Anish Nair</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Non Veg</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="inlineStr">
+        <is>
+          <t>HR369</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>HR369</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Neha Sachan</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="inlineStr">
+        <is>
+          <t>HR960</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>HR960</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Rituparna Shaw</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr">
+        <is>
+          <t>HR403</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>HR403</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Aditya Parihar</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
+        <is>
+          <t>HR689</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>HR689</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Lakshmi Mohan</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="inlineStr">
+        <is>
+          <t>HR346</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>HR346</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Srilekha T </t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>HR837</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>HR837</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harshavardhan N </t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>HR742</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>HR742</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ravisreecharan </t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Non veg</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>HR329</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>HR329</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arjun Ganesh </t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>HR761</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>HR761</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>B K Prathayini</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Non Veg</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>HR903</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>HR903</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anshita Tripathi </t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>HR143</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>HR143</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Harini JV</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>HR709</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>HR709</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Varsha Anand</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>HR612</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>HR612</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Deepesh Vivek Gowthaman</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
+        <is>
+          <t>HR286</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>HR286</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Akshath Bala</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>HR743</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>HR743</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Nandita Lakshmankumar</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>non veg</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>HR564</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>HR564</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Nayan Punamiya</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>HR117</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>HR117</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Swetha D</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>HR199</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>HR199</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Arya katoch</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Non veg</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>HR946</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>HR946</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Smriti Sethu Narayanan </t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>HR814</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>HR814</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Raghunandhan S</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>HR314</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>HR314</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nitya Tyagi </t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>HR740</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>HR740</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Ya.Puvanesh</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>HR868</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>HR868</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sharon Bincy </t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Non veg </t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="inlineStr">
+        <is>
+          <t>HR811</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>HR811</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dharssan </t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="inlineStr">
+        <is>
+          <t>HR748</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>HR748</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">E Toshith </t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="inlineStr">
+        <is>
+          <t>HR255</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>HR255</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Harini G. N.</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="inlineStr">
+        <is>
+          <t>HR587</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>HR587</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karthik Sriram </t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="inlineStr">
+        <is>
+          <t>HR627</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>HR627</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Sunantida.S.C</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="inlineStr">
+        <is>
+          <t>HR312</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>HR312</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S.Pranith
+</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="inlineStr">
+        <is>
+          <t>HR113</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>HR113</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Andrew Ranjan</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="inlineStr">
+        <is>
+          <t>HR916</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>HR916</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Irfan Akthar A</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Non-Veg</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="inlineStr">
+        <is>
+          <t>HR744</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>HR744</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Harshini Male</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="inlineStr">
+        <is>
+          <t>HR507</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>HR507</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Sowmiya Narayanan</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="inlineStr">
+        <is>
+          <t>HR846</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>HR846</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ansha Tripathi </t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="inlineStr">
+        <is>
+          <t>HR834</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>HR834</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pranav Teckchandani </t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Non veg</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="inlineStr">
+        <is>
+          <t>HR589</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>HR589</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Jenella.V</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Non-veg</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="inlineStr">
+        <is>
+          <t>HR214</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>HR214</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>UNHRC</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abhilash Mukherjee </t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Veg</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
